--- a/T3 - JSON/EstadisticasNBA/out/production/EstadisticasNBA/recursos/API NBA.xlsx
+++ b/T3 - JSON/EstadisticasNBA/out/production/EstadisticasNBA/recursos/API NBA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88e8cabb509bb692/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario DAM 2\Documents\NetBeansProjects\Desarrollo_Interfaces\T3 - JSON\EstadisticasNBA\src\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{7E43A751-1AAE-4C95-9403-51783B4051DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{440C0764-5209-41E6-AF1F-0D541B8EEBC6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7BCD105C-D8BE-4FFB-BF34-57438FCF4094}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="152">
   <si>
     <t>Nombre_equipo</t>
   </si>
@@ -48,9 +47,6 @@
     <t>Enes Kanter</t>
   </si>
   <si>
-    <t>Brad Stevens</t>
-  </si>
-  <si>
     <t>Brooklyn Nets</t>
   </si>
   <si>
@@ -60,9 +56,6 @@
     <t>Jarrett Allen</t>
   </si>
   <si>
-    <t>Kenny Atkinson</t>
-  </si>
-  <si>
     <t>New York Knicks</t>
   </si>
   <si>
@@ -75,9 +68,6 @@
     <t>Elfird Payton</t>
   </si>
   <si>
-    <t>Mike Miller</t>
-  </si>
-  <si>
     <t>Philadelphia Sixers</t>
   </si>
   <si>
@@ -87,9 +77,6 @@
     <t xml:space="preserve">Ben Simmons </t>
   </si>
   <si>
-    <t xml:space="preserve">Brett Brown </t>
-  </si>
-  <si>
     <t>Toronto Raptors</t>
   </si>
   <si>
@@ -102,9 +89,6 @@
     <t xml:space="preserve">Kyle Lowry </t>
   </si>
   <si>
-    <t>Nick Nurse</t>
-  </si>
-  <si>
     <t>Chicago Bulls</t>
   </si>
   <si>
@@ -117,9 +101,6 @@
     <t>Tomas Satoransky</t>
   </si>
   <si>
-    <t>Jim Boylen</t>
-  </si>
-  <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
@@ -132,9 +113,6 @@
     <t xml:space="preserve">Darius Garland </t>
   </si>
   <si>
-    <t>John Beilein</t>
-  </si>
-  <si>
     <t>LeBron James</t>
   </si>
   <si>
@@ -147,9 +125,6 @@
     <t>Derrick Rose</t>
   </si>
   <si>
-    <t>Dwane Casey</t>
-  </si>
-  <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
@@ -159,18 +134,12 @@
     <t>Domantas Sabonis</t>
   </si>
   <si>
-    <t>Nate McMillan</t>
-  </si>
-  <si>
     <t>Milwaukee Bucks</t>
   </si>
   <si>
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
-    <t>Mike Bundenholzer</t>
-  </si>
-  <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
@@ -183,9 +152,6 @@
     <t>Trae Young</t>
   </si>
   <si>
-    <t>Lloyd Pierce</t>
-  </si>
-  <si>
     <t>Charlotte Hornets</t>
   </si>
   <si>
@@ -195,9 +161,6 @@
     <t xml:space="preserve">Cody Zeller </t>
   </si>
   <si>
-    <t>James Borrego</t>
-  </si>
-  <si>
     <t>Miami Heat</t>
   </si>
   <si>
@@ -210,9 +173,6 @@
     <t>Jimmy Butler</t>
   </si>
   <si>
-    <t>Erik Spoelstra</t>
-  </si>
-  <si>
     <t>Orlando Magic</t>
   </si>
   <si>
@@ -225,9 +185,6 @@
     <t>D.J. Augustin</t>
   </si>
   <si>
-    <t>Steve Clifford</t>
-  </si>
-  <si>
     <t>Washington Wizards</t>
   </si>
   <si>
@@ -237,18 +194,12 @@
     <t>Bradley Beal</t>
   </si>
   <si>
-    <t>Scott Brooks</t>
-  </si>
-  <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
     <t>Nikola Jokic</t>
   </si>
   <si>
-    <t>Michael Malone</t>
-  </si>
-  <si>
     <t>Minnesota Timberwolves</t>
   </si>
   <si>
@@ -258,9 +209,6 @@
     <t>Jeff Teague</t>
   </si>
   <si>
-    <t>Ryan Saunders</t>
-  </si>
-  <si>
     <t>Oklahoma City Thunder</t>
   </si>
   <si>
@@ -273,9 +221,6 @@
     <t>Chris Paul</t>
   </si>
   <si>
-    <t>Billy Donovan</t>
-  </si>
-  <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
@@ -285,9 +230,6 @@
     <t>Hassan Whiteside</t>
   </si>
   <si>
-    <t>Terry Stotts</t>
-  </si>
-  <si>
     <t>Utah Jazz</t>
   </si>
   <si>
@@ -300,9 +242,6 @@
     <t>Mike Conley</t>
   </si>
   <si>
-    <t>Quin Snyder</t>
-  </si>
-  <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
@@ -312,9 +251,6 @@
     <t>Stephen Curry</t>
   </si>
   <si>
-    <t>Steve Kerr</t>
-  </si>
-  <si>
     <t>LA Clippers</t>
   </si>
   <si>
@@ -324,18 +260,12 @@
     <t>Lou Williams</t>
   </si>
   <si>
-    <t>Doc Rivers</t>
-  </si>
-  <si>
     <t>Los Angeles Lakers</t>
   </si>
   <si>
     <t>Anthony Davis</t>
   </si>
   <si>
-    <t>Frank Vogel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Phoenix Suns </t>
   </si>
   <si>
@@ -348,9 +278,6 @@
     <t>Ricky Rubio</t>
   </si>
   <si>
-    <t>Monty Williams</t>
-  </si>
-  <si>
     <t>Sacramento Kings</t>
   </si>
   <si>
@@ -363,18 +290,12 @@
     <t>De'Aaron Fox</t>
   </si>
   <si>
-    <t>Luke Walton</t>
-  </si>
-  <si>
     <t>Dallas Mavericks</t>
   </si>
   <si>
     <t>Luka Doncic</t>
   </si>
   <si>
-    <t>Rick Carlisle</t>
-  </si>
-  <si>
     <t>Houston Rockets</t>
   </si>
   <si>
@@ -384,9 +305,6 @@
     <t>Clint Capela</t>
   </si>
   <si>
-    <t>Mike D'Antoni</t>
-  </si>
-  <si>
     <t>Memphis Grizzlies</t>
   </si>
   <si>
@@ -396,9 +314,6 @@
     <t>Jonas Valanciunas</t>
   </si>
   <si>
-    <t>Taylor Jenkins</t>
-  </si>
-  <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
@@ -411,9 +326,6 @@
     <t>Jrue Holiday</t>
   </si>
   <si>
-    <t>Alvin Gentry</t>
-  </si>
-  <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
@@ -423,9 +335,6 @@
     <t>LaMarcus Aldridge</t>
   </si>
   <si>
-    <t>Gregg Popovich</t>
-  </si>
-  <si>
     <t>PPP_Lider</t>
   </si>
   <si>
@@ -469,9 +378,6 @@
   </si>
   <si>
     <t>23.3</t>
-  </si>
-  <si>
-    <t>Entrenador</t>
   </si>
   <si>
     <t>Lider_Puntos</t>
@@ -585,7 +491,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1016,11 +922,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F96AD46-FF43-47A9-82E3-A2968259DB58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,8 +940,7 @@
     <col min="7" max="7" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="85.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="85.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -1044,34 +949,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1088,30 +990,27 @@
         <v>3</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -1120,33 +1019,30 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="10">
         <v>3</v>
@@ -1155,33 +1051,30 @@
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>13</v>
-      </c>
       <c r="I4" s="12" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -1190,33 +1083,30 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G5" s="5">
         <v>12.5</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I5" s="5">
         <v>8.6</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" s="10">
         <v>5</v>
@@ -1225,33 +1115,30 @@
         <v>1</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6" s="11">
         <v>25.1</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G6" s="12">
         <v>8</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I6" s="12">
         <v>7.6</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
@@ -1260,33 +1147,30 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7" s="8">
         <v>23.6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G7" s="5">
         <v>9.8000000000000007</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I7" s="5">
         <v>5.3</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B8" s="10">
         <v>7</v>
@@ -1295,33 +1179,30 @@
         <v>1</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E8" s="11">
         <v>17.899999999999999</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G8" s="12">
         <v>10.6</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I8" s="12">
         <v>2.9</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
@@ -1330,33 +1211,30 @@
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E9" s="8">
         <v>17.899999999999999</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G9" s="5">
         <v>15.9</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I9" s="5">
         <v>6</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B10" s="10">
         <v>9</v>
@@ -1365,34 +1243,31 @@
         <v>0</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E10" s="11">
         <v>18.3</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G10" s="12">
         <v>13.3</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I10" s="12">
         <v>7.6</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3">
         <v>10</v>
@@ -1401,33 +1276,30 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E11" s="8">
         <v>30.5</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G11" s="5">
         <v>12.9</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I11" s="5">
         <v>5.7</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B12" s="10">
         <v>11</v>
@@ -1436,33 +1308,30 @@
         <v>1</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E12" s="11">
         <v>28.5</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G12" s="12">
         <v>10</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I12" s="12">
         <v>8.3000000000000007</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B13" s="3">
         <v>12</v>
@@ -1471,33 +1340,30 @@
         <v>0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E13" s="8">
         <v>19.2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G13" s="5">
         <v>7.8</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I13" s="5">
         <v>7.6</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B14" s="10">
         <v>13</v>
@@ -1506,33 +1372,30 @@
         <v>3</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E14" s="11">
         <v>20.399999999999999</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G14" s="12">
         <v>10.8</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="I14" s="12">
         <v>6.6</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B15" s="3">
         <v>14</v>
@@ -1541,33 +1404,30 @@
         <v>0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E15" s="8">
         <v>19.3</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G15" s="5">
         <v>11</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I15" s="5">
         <v>4.5999999999999996</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B16" s="10">
         <v>15</v>
@@ -1576,33 +1436,30 @@
         <v>1</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E16" s="11">
         <v>27.8</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="G16" s="12">
         <v>8.5</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="I16" s="12">
         <v>6.7</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B17" s="3">
         <v>16</v>
@@ -1611,33 +1468,30 @@
         <v>0</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E17" s="8">
         <v>17.600000000000001</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G17" s="5">
         <v>10</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="I17" s="5">
         <v>6.8</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B18" s="10">
         <v>17</v>
@@ -1646,33 +1500,30 @@
         <v>0</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E18" s="11">
         <v>26.5</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="G18" s="12">
         <v>11.7</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="I18" s="12">
         <v>6.5</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B19" s="3">
         <v>18</v>
@@ -1681,33 +1532,30 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E19" s="8">
         <v>19.399999999999999</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G19" s="5">
         <v>9.8000000000000007</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="I19" s="5">
         <v>6.5</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B20" s="10">
         <v>19</v>
@@ -1716,33 +1564,30 @@
         <v>1</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E20" s="11">
         <v>26.9</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="G20" s="12">
         <v>13.3</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="I20" s="12">
         <v>7.5</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B21" s="3">
         <v>20</v>
@@ -1751,33 +1596,30 @@
         <v>0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E21" s="8">
         <v>25.1</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G21" s="5">
         <v>14.3</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="I21" s="5">
         <v>4.5999999999999996</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B22" s="10">
         <v>21</v>
@@ -1786,33 +1628,30 @@
         <v>6</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E22" s="11">
         <v>22.7</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="G22" s="12">
         <v>6.4</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="I22" s="12">
         <v>6.5</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B23" s="3">
         <v>22</v>
@@ -1821,33 +1660,30 @@
         <v>0</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="E23" s="8">
         <v>25.9</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="G23" s="5">
         <v>8</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="I23" s="5">
         <v>6.2</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B24" s="10">
         <v>23</v>
@@ -1856,33 +1692,30 @@
         <v>16</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="E24" s="11">
         <v>27.7</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="G24" s="12">
         <v>9.3000000000000007</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I24" s="12">
         <v>10.6</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="B25" s="3">
         <v>24</v>
@@ -1891,33 +1724,30 @@
         <v>0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="E25" s="8">
         <v>24.4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="G25" s="5">
         <v>11.5</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="I25" s="5">
         <v>9.1999999999999993</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B26" s="10">
         <v>25</v>
@@ -1926,33 +1756,30 @@
         <v>1</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="E26" s="11">
         <v>20.2</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="G26" s="12">
         <v>8.8000000000000007</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="I26" s="12">
         <v>6.4</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="B27" s="3">
         <v>26</v>
@@ -1961,33 +1788,30 @@
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="E27" s="8">
         <v>29.1</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="G27" s="5">
         <v>9.6</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="I27" s="5">
         <v>8.8000000000000007</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B28" s="10">
         <v>27</v>
@@ -1996,33 +1820,30 @@
         <v>2</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="E28" s="11">
         <v>38.1</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G28" s="12">
         <v>14.4</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="I28" s="12">
         <v>7.5</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="B29" s="3">
         <v>28</v>
@@ -2031,33 +1852,30 @@
         <v>0</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="E29" s="8">
         <v>17.899999999999999</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="G29" s="5">
         <v>9.6999999999999993</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="I29" s="5">
         <v>6.4</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="B30" s="10">
         <v>29</v>
@@ -2066,33 +1884,30 @@
         <v>0</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="E30" s="11">
         <v>25.3</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="G30" s="12">
         <v>9.4</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="I30" s="12">
         <v>6.5</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="B31" s="3">
         <v>30</v>
@@ -2101,28 +1916,25 @@
         <v>5</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="E31" s="8">
         <v>20.9</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="G31" s="5">
         <v>7.4</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="I31" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>182</v>
+      <c r="J31" s="14" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/T3 - JSON/EstadisticasNBA/out/production/EstadisticasNBA/recursos/API NBA.xlsx
+++ b/T3 - JSON/EstadisticasNBA/out/production/EstadisticasNBA/recursos/API NBA.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="152">
   <si>
     <t>Nombre_equipo</t>
   </si>
@@ -606,7 +606,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/T3 - JSON/EstadisticasNBA/out/production/EstadisticasNBA/recursos/API NBA.xlsx
+++ b/T3 - JSON/EstadisticasNBA/out/production/EstadisticasNBA/recursos/API NBA.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -398,94 +398,94 @@
     <t>Logo</t>
   </si>
   <si>
-    <t>/Boston_Celtics_logo.png</t>
-  </si>
-  <si>
-    <t>/58419c7ba6515b1e0ad75a62.png</t>
-  </si>
-  <si>
-    <t>/58419cc8a6515b1e0ad75a67.png</t>
-  </si>
-  <si>
-    <t>/498-4984552_philadelphia-76ers-logo-png-transparent-png.png</t>
-  </si>
-  <si>
-    <t>/toronto_raptors_new_logo.png</t>
-  </si>
-  <si>
-    <t>/cleveland-cavaliers-logo-transparent.png</t>
-  </si>
-  <si>
-    <t>/chicago-bulls-logo-png-transparent-svg-vector-freebie-supply-bulls-logo-png-2400_2400.png</t>
-  </si>
-  <si>
-    <t>/Pistons_logo17.svg/1200px-Pistons_logo17.svg.png</t>
-  </si>
-  <si>
-    <t>/Indiana_Pacers_logo.svg</t>
-  </si>
-  <si>
-    <t>/3f6d4be7c1bc644af57510722bbae1bb-milwaukee-bucks-logo-by-vexels.png</t>
-  </si>
-  <si>
-    <t>/58419be4a6515b1e0ad75a58.png</t>
-  </si>
-  <si>
-    <t>/58419bd7a6515b1e0ad75a57.png</t>
-  </si>
-  <si>
-    <t>/miami-heat-logo-png-transparent-svg-vector-freebie-supply-heat-logo-png-2400_3400.png</t>
-  </si>
-  <si>
-    <t>/Orlando_magic_logo.png</t>
-  </si>
-  <si>
-    <t>/58419c12a6515b1e0ad75a5b.png</t>
-  </si>
-  <si>
-    <t>/denver-nuggets-logo-vector.png</t>
-  </si>
-  <si>
-    <t>/nba-minnesota_timberwolves-logo.png</t>
-  </si>
-  <si>
-    <t>/okc-thunder-logo-png.png</t>
-  </si>
-  <si>
-    <t>/7d07eaa72e74a2def63540ac7d55ba0f.png</t>
-  </si>
-  <si>
-    <t>/utah-jazz-logo.png</t>
-  </si>
-  <si>
-    <t>/houston-rockets-logo.png</t>
-  </si>
-  <si>
-    <t>/58419ce2a6515b1e0ad75a69.png</t>
-  </si>
-  <si>
-    <t>/10-101641_los-angeles-clippers-ndash-logos-download-la-clippers.png</t>
-  </si>
-  <si>
-    <t>/Los_Angeles_Lakers_logo.svg/1280px-Los_Angeles_Lakers_logo.svg.png</t>
-  </si>
-  <si>
-    <t>/25-255011_phoenix-suns-logo-png-2017.png</t>
-  </si>
-  <si>
-    <t>/sacramento-kings-vector-logo.png</t>
-  </si>
-  <si>
-    <t>/58419cd6a6515b1e0ad75a68.png</t>
-  </si>
-  <si>
-    <t>/58419c00a6515b1e0ad75a5a.png</t>
-  </si>
-  <si>
-    <t>/181-1813153_new-orleans-pelicans-logo-png.png</t>
-  </si>
-  <si>
-    <t>/cb8990f888a45561c9d33a73b8c2c801-san-antonio-spurs-logo-by-vexels.png</t>
+    <t>https://upload.wikimedia.org/wikipedia/an/0/04/Boston_Celtics_logo.png</t>
+  </si>
+  <si>
+    <t>https://www.stickpng.com/assets/images/58419c7ba6515b1e0ad75a62.png</t>
+  </si>
+  <si>
+    <t>https://www.stickpng.com/assets/images/58419cc8a6515b1e0ad75a67.png</t>
+  </si>
+  <si>
+    <t>https://www.stickpng.com/assets/images/58419ca3a6515b1e0ad75a64.png</t>
+  </si>
+  <si>
+    <t>https://cdn.freelogovectors.net/wp-content/uploads/2012/03/toronto_raptors_new_logo.png</t>
+  </si>
+  <si>
+    <t>https://img.pngio.com/chicago-bulls-logo-png-transparent-svg-vector-freebie-supply-bulls-logo-png-2400_2400.png</t>
+  </si>
+  <si>
+    <t>https://www.pikpng.com/pngl/m/6-64124_cleveland-cavaliers-cleveland-cavaliers-logo-png-transparent-png.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7c/Pistons_logo17.svg/1024px-Pistons_logo17.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/9/97/Indiana_Pacers_logo.svg</t>
+  </si>
+  <si>
+    <t>https://images.vexels.com/media/users/3/131482/isolated/preview/3f6d4be7c1bc644af57510722bbae1bb-milwaukee-bucks-logo-by-vexels.png</t>
+  </si>
+  <si>
+    <t>https://www.stickpng.com/assets/images/58419be4a6515b1e0ad75a58.png</t>
+  </si>
+  <si>
+    <t>https://www.stickpng.com/assets/images/58419bd7a6515b1e0ad75a57.png</t>
+  </si>
+  <si>
+    <t>https://images.vexels.com/media/users/3/131475/isolated/preview/0f01e14fca8d63ccb19f35955de2c3bb-logo-de-miami-heat-by-vexels.png</t>
+  </si>
+  <si>
+    <t>https://www.stickpng.com/assets/images/58419b7da6515b1e0ad75a51.png</t>
+  </si>
+  <si>
+    <t>https://www.stickpng.com/assets/images/58419c12a6515b1e0ad75a5b.png</t>
+  </si>
+  <si>
+    <t>https://cdn.freelogovectors.net/svg04/denver-nuggets-logo.svg</t>
+  </si>
+  <si>
+    <t>https://worldsportlogos.com/wp-content/uploads/2019/06/Minnesota-Timberwolves-logo.png</t>
+  </si>
+  <si>
+    <t>https://www.stickpng.com/assets/images/58419c20a6515b1e0ad75a5c.png</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/originals/7d/07/ea/7d07eaa72e74a2def63540ac7d55ba0f.png</t>
+  </si>
+  <si>
+    <t>https://www.stickpng.com/assets/images/58419bb6a6515b1e0ad75a55.png</t>
+  </si>
+  <si>
+    <t>https://www.stickpng.com/assets/images/58419ce2a6515b1e0ad75a69.png</t>
+  </si>
+  <si>
+    <t>https://a.espncdn.com/combiner/i?img=%2Fi%2Fteamlogos%2Fnba%2F500%2Flac.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3c/Los_Angeles_Lakers_logo.svg/291px-Los_Angeles_Lakers_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://www.stickpng.com/assets/images/58419d52a6515b1e0ad75a6d.png</t>
+  </si>
+  <si>
+    <t>https://vectorlogoseek.com/wp-content/uploads/2018/12/sacramento-kings-vector-logo.png</t>
+  </si>
+  <si>
+    <t>https://www.stickpng.com/assets/images/58419cd6a6515b1e0ad75a68.png</t>
+  </si>
+  <si>
+    <t>https://logodownload.org/wp-content/uploads/2019/06/houston-rockets-logo.png</t>
+  </si>
+  <si>
+    <t>https://www.stickpng.com/assets/images/58419c00a6515b1e0ad75a5a.png</t>
+  </si>
+  <si>
+    <t>https://az1.hatstoremedia.com/hatstore/images/image-new-orleans-pelicans-kepsar-2017-02-21-125548850/555/555/0/new-orleans-pelicans-kepsar.png</t>
+  </si>
+  <si>
+    <t>https://images.vexels.com/media/users/3/132006/isolated/preview/cb8990f888a45561c9d33a73b8c2c801-san-antonio-spurs-logo-by-vexels.png</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,6 +515,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -564,10 +572,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -606,11 +615,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -925,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,7 +953,8 @@
     <col min="7" max="7" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="85.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="140.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="85.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -1004,7 +1018,7 @@
       <c r="I2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="14" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1165,7 +1179,7 @@
         <v>5.3</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1197,7 +1211,7 @@
         <v>2.9</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1646,7 +1660,7 @@
         <v>6.5</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1678,7 +1692,7 @@
         <v>6.2</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1710,7 +1724,7 @@
         <v>10.6</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1742,7 +1756,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1774,7 +1788,7 @@
         <v>6.4</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1806,7 +1820,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1838,7 +1852,7 @@
         <v>7.5</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1933,12 +1947,15 @@
       <c r="I31" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J31" s="14" t="s">
+      <c r="J31" s="15" t="s">
         <v>151</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/T3 - JSON/EstadisticasNBA/out/production/EstadisticasNBA/recursos/API NBA.xlsx
+++ b/T3 - JSON/EstadisticasNBA/out/production/EstadisticasNBA/recursos/API NBA.xlsx
@@ -398,94 +398,94 @@
     <t>Logo</t>
   </si>
   <si>
-    <t>https://upload.wikimedia.org/wikipedia/an/0/04/Boston_Celtics_logo.png</t>
-  </si>
-  <si>
-    <t>https://www.stickpng.com/assets/images/58419c7ba6515b1e0ad75a62.png</t>
-  </si>
-  <si>
-    <t>https://www.stickpng.com/assets/images/58419cc8a6515b1e0ad75a67.png</t>
-  </si>
-  <si>
-    <t>https://www.stickpng.com/assets/images/58419ca3a6515b1e0ad75a64.png</t>
-  </si>
-  <si>
-    <t>https://cdn.freelogovectors.net/wp-content/uploads/2012/03/toronto_raptors_new_logo.png</t>
-  </si>
-  <si>
-    <t>https://img.pngio.com/chicago-bulls-logo-png-transparent-svg-vector-freebie-supply-bulls-logo-png-2400_2400.png</t>
-  </si>
-  <si>
-    <t>https://www.pikpng.com/pngl/m/6-64124_cleveland-cavaliers-cleveland-cavaliers-logo-png-transparent-png.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7c/Pistons_logo17.svg/1024px-Pistons_logo17.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/9/97/Indiana_Pacers_logo.svg</t>
-  </si>
-  <si>
-    <t>https://images.vexels.com/media/users/3/131482/isolated/preview/3f6d4be7c1bc644af57510722bbae1bb-milwaukee-bucks-logo-by-vexels.png</t>
-  </si>
-  <si>
-    <t>https://www.stickpng.com/assets/images/58419be4a6515b1e0ad75a58.png</t>
-  </si>
-  <si>
-    <t>https://www.stickpng.com/assets/images/58419bd7a6515b1e0ad75a57.png</t>
-  </si>
-  <si>
-    <t>https://images.vexels.com/media/users/3/131475/isolated/preview/0f01e14fca8d63ccb19f35955de2c3bb-logo-de-miami-heat-by-vexels.png</t>
-  </si>
-  <si>
-    <t>https://www.stickpng.com/assets/images/58419b7da6515b1e0ad75a51.png</t>
-  </si>
-  <si>
-    <t>https://www.stickpng.com/assets/images/58419c12a6515b1e0ad75a5b.png</t>
-  </si>
-  <si>
-    <t>https://cdn.freelogovectors.net/svg04/denver-nuggets-logo.svg</t>
-  </si>
-  <si>
-    <t>https://worldsportlogos.com/wp-content/uploads/2019/06/Minnesota-Timberwolves-logo.png</t>
-  </si>
-  <si>
-    <t>https://www.stickpng.com/assets/images/58419c20a6515b1e0ad75a5c.png</t>
-  </si>
-  <si>
-    <t>https://i.pinimg.com/originals/7d/07/ea/7d07eaa72e74a2def63540ac7d55ba0f.png</t>
-  </si>
-  <si>
-    <t>https://www.stickpng.com/assets/images/58419bb6a6515b1e0ad75a55.png</t>
-  </si>
-  <si>
-    <t>https://www.stickpng.com/assets/images/58419ce2a6515b1e0ad75a69.png</t>
-  </si>
-  <si>
-    <t>https://a.espncdn.com/combiner/i?img=%2Fi%2Fteamlogos%2Fnba%2F500%2Flac.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3c/Los_Angeles_Lakers_logo.svg/291px-Los_Angeles_Lakers_logo.svg.png</t>
-  </si>
-  <si>
-    <t>https://www.stickpng.com/assets/images/58419d52a6515b1e0ad75a6d.png</t>
-  </si>
-  <si>
-    <t>https://vectorlogoseek.com/wp-content/uploads/2018/12/sacramento-kings-vector-logo.png</t>
-  </si>
-  <si>
-    <t>https://www.stickpng.com/assets/images/58419cd6a6515b1e0ad75a68.png</t>
-  </si>
-  <si>
-    <t>https://logodownload.org/wp-content/uploads/2019/06/houston-rockets-logo.png</t>
-  </si>
-  <si>
-    <t>https://www.stickpng.com/assets/images/58419c00a6515b1e0ad75a5a.png</t>
-  </si>
-  <si>
-    <t>https://az1.hatstoremedia.com/hatstore/images/image-new-orleans-pelicans-kepsar-2017-02-21-125548850/555/555/0/new-orleans-pelicans-kepsar.png</t>
-  </si>
-  <si>
-    <t>https://images.vexels.com/media/users/3/132006/isolated/preview/cb8990f888a45561c9d33a73b8c2c801-san-antonio-spurs-logo-by-vexels.png</t>
+    <t>http://content.sportslogos.net/logos/6/213/full/slhg02hbef3j1ov4lsnwyol5o.png</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/3786/full/137_brooklyn-nets-primary-2013.png</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/216/full/2nn48xofg0hms8k326cqdmuis.gif</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/218/full/7034_philadelphia_76ers-primary-2016.png</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/220/full/9168_atlanta_hawks-primary-2016.png</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/5120/full/1926_charlotte__hornets_-primary-2015.png</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/221/full/hj3gmh82w9hffmeh3fjm5h874.png</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/222/full/6921_cleveland_cavaliers-primary-2018.png</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/228/full/3463_dallas_mavericks-primary-2018.png</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/229/full/8926_denver_nuggets-primary-2019.png</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/223/full/2164_detroit_pistons-primary-2018.png</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/235/full/3152_golden_state_warriors-primary-2020.png</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/230/full/6830_houston_rockets-primary-2020.png</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/224/full/4812_indiana_pacers-primary-2018.png</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/236/full/5462_los_angeles_clippers-primary-2016.png</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/237/full/uig7aiht8jnpl1szbi57zzlsh.png</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/231/full/4373_memphis_grizzlies-primary-2019.png</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/214/full/burm5gh2wvjti3xhei5h16k8e.gif</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/225/full/8275_milwaukee_bucks-primary-2016.png</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/232/full/9669_minnesota_timberwolves-primary-2018.png</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/4962/full/2681_new_orleans_pelicans-primary-2014.png</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/2687/full/khmovcnezy06c3nm05ccn0oj2.png</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/217/full/wd9ic7qafgfb0yxs7tem7n5g4.gif</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/238/full/4370_phoenix_suns-primary-2014.png</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/239/full/9725_portland_trail_blazers-primary-2018.png</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/240/full/4043_sacramento_kings-primary-2017.png</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/233/full/2547_san_antonio_spurs-primary-2018.png</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/227/full/4578_toronto_raptors-primary-2016.png</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/234/full/6749_utah_jazz-primary-2017.png</t>
+  </si>
+  <si>
+    <t>http://content.sportslogos.net/logos/6/219/full/5671_washington_wizards-primary-2016.png</t>
   </si>
 </sst>
 </file>
@@ -938,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,7 +953,7 @@
     <col min="7" max="7" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="140.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="85.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="11.42578125" style="1"/>
   </cols>
@@ -1147,7 +1147,7 @@
         <v>7.6</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1179,7 +1179,7 @@
         <v>5.3</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1211,7 +1211,7 @@
         <v>2.9</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1243,7 +1243,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1275,7 +1275,7 @@
         <v>7.6</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="L10" s="13"/>
     </row>
@@ -1308,7 +1308,7 @@
         <v>5.7</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1340,7 +1340,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1372,7 +1372,7 @@
         <v>7.6</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1404,7 +1404,7 @@
         <v>6.6</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1436,7 +1436,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1468,7 +1468,7 @@
         <v>6.7</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1500,7 +1500,7 @@
         <v>6.8</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1532,7 +1532,7 @@
         <v>6.5</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1564,7 +1564,7 @@
         <v>6.5</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1596,7 +1596,7 @@
         <v>7.5</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1628,7 +1628,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1660,7 +1660,7 @@
         <v>6.5</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1692,7 +1692,7 @@
         <v>6.2</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1724,7 +1724,7 @@
         <v>10.6</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1788,7 +1788,7 @@
         <v>6.4</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1820,7 +1820,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1852,7 +1852,7 @@
         <v>7.5</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1884,7 +1884,7 @@
         <v>6.4</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1916,7 +1916,7 @@
         <v>6.5</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1948,14 +1948,11 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>